--- a/D.W.xlsx
+++ b/D.W.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -511,13 +511,15 @@
         <v>8563.454000000002</v>
       </c>
       <c r="I2" t="n">
-        <v>18000</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -541,7 +543,7 @@
         <v>8013.842000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="J3" t="n">
         <v>16</v>
@@ -549,7 +551,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -573,7 +575,7 @@
         <v>7686.442</v>
       </c>
       <c r="I4" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="J4" t="n">
         <v>16</v>
@@ -581,7 +583,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -605,7 +607,7 @@
         <v>7458.076</v>
       </c>
       <c r="I5" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="J5" t="n">
         <v>16</v>
@@ -613,7 +615,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -637,7 +639,7 @@
         <v>7331.668</v>
       </c>
       <c r="I6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="J6" t="n">
         <v>16</v>
@@ -645,7 +647,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>11</v>
@@ -669,13 +671,15 @@
         <v>7627.586</v>
       </c>
       <c r="I7" t="n">
-        <v>1899</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>33</v>
@@ -699,13 +703,15 @@
         <v>8646.528</v>
       </c>
       <c r="I8" t="n">
-        <v>1899</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>68</v>
@@ -729,15 +735,15 @@
         <v>10016.994</v>
       </c>
       <c r="I9" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="J9" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>92</v>
@@ -761,15 +767,15 @@
         <v>10562.282</v>
       </c>
       <c r="I10" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="J10" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>110</v>
@@ -793,15 +799,15 @@
         <v>10809.742</v>
       </c>
       <c r="I11" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="J11" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>134</v>
@@ -825,13 +831,15 @@
         <v>10900.948</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>143</v>
@@ -855,13 +863,15 @@
         <v>11613.546</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>134</v>
@@ -885,13 +895,15 @@
         <v>12317.988</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>5999.98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>121</v>
@@ -915,13 +927,15 @@
         <v>10790.614</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>5999.98</v>
+      </c>
+      <c r="J15" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>97</v>
@@ -945,13 +959,15 @@
         <v>10496.28</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>5999.98</v>
+      </c>
+      <c r="J16" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>70</v>
@@ -975,13 +991,15 @@
         <v>9955.274000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>55</v>
@@ -1005,13 +1023,15 @@
         <v>10613.064</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>22</v>
@@ -1035,13 +1055,15 @@
         <v>11422.044</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>4</v>
@@ -1065,13 +1087,15 @@
         <v>12835.77</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -1095,13 +1119,15 @@
         <v>13066.336</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -1125,13 +1151,15 @@
         <v>12084.724</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -1155,13 +1183,15 @@
         <v>11321.402</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -1185,13 +1215,15 @@
         <v>10371.192</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1215,9 +1247,11 @@
         <v>9390.358</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="J25" t="n">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
